--- a/BOM/promprog2.xlsx
+++ b/BOM/promprog2.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="D43" authorId="0">
+    <comment ref="D44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0">
+    <comment ref="D45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0">
+    <comment ref="D48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0">
+    <comment ref="F42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="246">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -333,6 +333,24 @@
   </si>
   <si>
     <t xml:space="preserve">437-8018301610001101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex standoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3/12mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFF-M3X12/DR114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">534-24394</t>
   </si>
   <si>
     <t xml:space="preserve">J1</t>
@@ -914,12 +932,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -931,7 +945,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,61 +986,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ58"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="AMJ1" s="2"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="AMJ1" s="1"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AMJ2" s="2"/>
+      <c r="AMJ2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1072,7 +1086,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1090,7 +1104,7 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1329,7 +1343,7 @@
         <v>82</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>83</v>
@@ -1363,27 +1377,27 @@
       <c r="F17" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1395,52 +1409,52 @@
         <v>99</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1451,39 +1465,39 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>119</v>
+      <c r="A23" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1494,14 +1508,14 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>127</v>
@@ -1517,394 +1531,394 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>145</v>
+      <c r="A28" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>170</v>
+      <c r="A33" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="1" t="n">
+      <c r="D34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>184</v>
+      <c r="A36" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>188</v>
+      <c r="A37" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="1" t="s">
         <v>196</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>215</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G43" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1913,35 +1927,35 @@
         <v>218</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E45" s="8" t="s">
         <v>225</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -1956,47 +1970,47 @@
         <v>228</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>1</v>
@@ -2004,23 +2018,36 @@
       <c r="D48" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -2030,121 +2057,124 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId2" location="" display="69611"/>
+    <hyperlink ref="E3" r:id="rId2" display="69611"/>
     <hyperlink ref="F3" r:id="rId3" display="EEEFC1A102AP"/>
     <hyperlink ref="G3" r:id="rId4" display="647-UUR1A102MNL1GS"/>
     <hyperlink ref="F4" r:id="rId5" display="TAJA226K010R"/>
     <hyperlink ref="G4" r:id="rId6" display="581-TAJA226K006RNJV"/>
-    <hyperlink ref="E5" r:id="rId7" location="" display="36996"/>
+    <hyperlink ref="E5" r:id="rId7" display="36996"/>
     <hyperlink ref="F5" r:id="rId8" display="1206B104K500CT"/>
     <hyperlink ref="G5" r:id="rId9" display="80-C1206C104M5R"/>
-    <hyperlink ref="E6" r:id="rId10" location="" display="69618"/>
+    <hyperlink ref="E6" r:id="rId10" display="69618"/>
     <hyperlink ref="F6" r:id="rId11" display="EEEFT1E471AP"/>
     <hyperlink ref="G6" r:id="rId12" display="80-EDH477M016A9MAA"/>
-    <hyperlink ref="E7" r:id="rId13" location="" display="36984"/>
+    <hyperlink ref="E7" r:id="rId13" display="36984"/>
     <hyperlink ref="F7" r:id="rId14" display="CC1206KRX7R9103"/>
     <hyperlink ref="G7" r:id="rId15" display="710-885012208112"/>
-    <hyperlink ref="E8" r:id="rId16" location="" display="36892"/>
+    <hyperlink ref="E8" r:id="rId16" display="36892"/>
     <hyperlink ref="F8" r:id="rId17" display="1206N220K102CT"/>
     <hyperlink ref="G8" r:id="rId18" display="710-885012008011"/>
-    <hyperlink ref="E9" r:id="rId19" location="" display="45860"/>
+    <hyperlink ref="E9" r:id="rId19" display="45860"/>
     <hyperlink ref="F9" r:id="rId20" display="S2B-DC"/>
     <hyperlink ref="G9" r:id="rId21" display="621-S2B-F"/>
-    <hyperlink ref="E10" r:id="rId22" location="" display="53638"/>
+    <hyperlink ref="E10" r:id="rId22" display="53638"/>
     <hyperlink ref="F10" r:id="rId23" display="SK110-DIO"/>
     <hyperlink ref="G10" r:id="rId24" display="833-SK110-TP"/>
-    <hyperlink ref="E11" r:id="rId25" location="" display="12330"/>
+    <hyperlink ref="E11" r:id="rId25" display="12330"/>
     <hyperlink ref="F11" r:id="rId26" display="L-34ID"/>
     <hyperlink ref="G11" r:id="rId27" display="604-WP132XIT"/>
-    <hyperlink ref="E12" r:id="rId28" location="" display="12389"/>
+    <hyperlink ref="E12" r:id="rId28" display="12389"/>
     <hyperlink ref="F12" r:id="rId29" display="L-34GD"/>
     <hyperlink ref="G12" r:id="rId30" display="604-WP132XGD"/>
-    <hyperlink ref="E13" r:id="rId31" location="" display="52951"/>
+    <hyperlink ref="E13" r:id="rId31" display="52951"/>
     <hyperlink ref="F13" r:id="rId32" display="RC1602B-BIW-ESX"/>
     <hyperlink ref="G13" r:id="rId33" display="668-NMCS1625DYHSAY22"/>
-    <hyperlink ref="E14" r:id="rId34" location="" display="55112"/>
+    <hyperlink ref="E14" r:id="rId34" display="55112"/>
     <hyperlink ref="F14" r:id="rId35" display="ZL201-16G"/>
     <hyperlink ref="G14" r:id="rId36" display="649-1012937891603BLF"/>
-    <hyperlink ref="E15" r:id="rId37" location="" display="2181"/>
+    <hyperlink ref="E15" r:id="rId37" display="2181"/>
     <hyperlink ref="F15" r:id="rId38" display="ZL262-16SG"/>
     <hyperlink ref="G15" r:id="rId39" display="437-8018301610001101"/>
-    <hyperlink ref="E16" r:id="rId40" location="" display="49926"/>
-    <hyperlink ref="F16" r:id="rId41" display="NEB21R"/>
-    <hyperlink ref="G16" r:id="rId42" display="992-CON-SOCJ-2155"/>
-    <hyperlink ref="E17" r:id="rId43" location="" display="25332"/>
-    <hyperlink ref="F17" r:id="rId44" display="ZL202-6G"/>
-    <hyperlink ref="E18" r:id="rId45" location="" display="49058"/>
-    <hyperlink ref="F18" r:id="rId46" display="10033526-N3212MLF/"/>
-    <hyperlink ref="G18" r:id="rId47" display="640-2665RBHM15STB01A"/>
-    <hyperlink ref="F19" r:id="rId48" display="ZL262-4SG"/>
-    <hyperlink ref="G19" r:id="rId49" display="437-3108710401640101"/>
-    <hyperlink ref="F20" r:id="rId50" display="ZL201-04G"/>
-    <hyperlink ref="G20" r:id="rId51" display="649-1012937890402BLF"/>
-    <hyperlink ref="E21" r:id="rId52" location="" display="6959"/>
-    <hyperlink ref="F21" r:id="rId53" display="IRFR9024NTRPBF"/>
-    <hyperlink ref="G21" r:id="rId54" display="942-IRFR9024NTRPBF"/>
-    <hyperlink ref="F22" r:id="rId55" display="BCP5116TA"/>
-    <hyperlink ref="G22" r:id="rId56" display="771-BCP51-10135"/>
-    <hyperlink ref="E23" r:id="rId57" location="" display="294795"/>
-    <hyperlink ref="F23" r:id="rId58" display="BC847B-TP"/>
-    <hyperlink ref="G23" r:id="rId59" display="771-BC847B235"/>
-    <hyperlink ref="E24" r:id="rId60" location="" display="34472"/>
-    <hyperlink ref="F24" r:id="rId61" display="SMD1206-10K"/>
-    <hyperlink ref="G24" r:id="rId62" display="603-RC1206JR-0710KL"/>
-    <hyperlink ref="E25" r:id="rId63" location="" display="35063"/>
-    <hyperlink ref="F25" r:id="rId64" display="SMD1206-330R"/>
-    <hyperlink ref="G25" r:id="rId65" display="603-RC1206JR-07330RL"/>
-    <hyperlink ref="F26" r:id="rId66" display="SMD1206-3K"/>
-    <hyperlink ref="G26" r:id="rId67" display="603-AC1206JR-073KL"/>
-    <hyperlink ref="E27" r:id="rId68" location="" display="35099"/>
-    <hyperlink ref="F27" r:id="rId69" display="SMD1206-33K"/>
-    <hyperlink ref="G27" r:id="rId70" display="652-CR1206-JW-333ELF"/>
-    <hyperlink ref="E28" r:id="rId71" location="" display="34376"/>
-    <hyperlink ref="F28" r:id="rId72" display="SMD1206-1K"/>
-    <hyperlink ref="G28" r:id="rId73" display="652-CR1206-JW-102ELF"/>
-    <hyperlink ref="E29" r:id="rId74" location="" display="34579"/>
-    <hyperlink ref="F29" r:id="rId75" display="SMD1206-100K"/>
-    <hyperlink ref="G29" r:id="rId76" display="652-CR1206JW-104ELF"/>
-    <hyperlink ref="E30" r:id="rId77" location="" display="33952"/>
-    <hyperlink ref="F30" r:id="rId78" display="SMD1206-10R"/>
-    <hyperlink ref="G30" r:id="rId79" display="652-CR1206-JW-100ELF"/>
-    <hyperlink ref="E31" r:id="rId80" location="" display="35053"/>
-    <hyperlink ref="F31" r:id="rId81" display="SMD1206-68R"/>
-    <hyperlink ref="G31" r:id="rId82" display="603-RC1206JR-0768RL"/>
-    <hyperlink ref="F32" r:id="rId83" display="3364X-1-203E"/>
-    <hyperlink ref="E33" r:id="rId84" location="" display="42620"/>
-    <hyperlink ref="F33" r:id="rId85" display="B3F-1052"/>
-    <hyperlink ref="G33" r:id="rId86" display="653-B3F-1052"/>
-    <hyperlink ref="E34" r:id="rId87" location="" display="53256"/>
-    <hyperlink ref="F34" r:id="rId88" display="B32-1010"/>
-    <hyperlink ref="G34" r:id="rId89" display="653-B32-1010"/>
-    <hyperlink ref="F35" r:id="rId90" display="B32-1070"/>
-    <hyperlink ref="G35" r:id="rId91" display="653-B32-1070"/>
-    <hyperlink ref="F36" r:id="rId92" display="B32-1080"/>
-    <hyperlink ref="G36" r:id="rId93" display="653-B32-1080"/>
-    <hyperlink ref="H37" r:id="rId94" display="e-bay/Aliexpress"/>
-    <hyperlink ref="I37" r:id="rId95" display="da sa pouzit aj tento, len ma inak zapojene vyvody, treba predratovat"/>
-    <hyperlink ref="F38" r:id="rId96" display="LM317D2TG"/>
-    <hyperlink ref="G38" r:id="rId97" display="863-LM317D2TG"/>
-    <hyperlink ref="F39" r:id="rId98" display="DS1044-160G"/>
-    <hyperlink ref="F40" r:id="rId99" display="GOLD-16P"/>
-    <hyperlink ref="G40" r:id="rId100" display="575-1104731641001000"/>
-    <hyperlink ref="F41" r:id="rId101" display="STS-20P-K"/>
-    <hyperlink ref="F42" r:id="rId102" display="ZL201-08G"/>
-    <hyperlink ref="E43" r:id="rId103" location="" display="2807"/>
-    <hyperlink ref="F43" r:id="rId104" display="74HCT595D.112"/>
-    <hyperlink ref="G43" r:id="rId105" display="621-74HCT595S16-13"/>
-    <hyperlink ref="F44" r:id="rId106" display="74HCT138D.652"/>
-    <hyperlink ref="G44" r:id="rId107" display="771-74HCT138D-T"/>
-    <hyperlink ref="E45" r:id="rId108" location="" display="184076"/>
-    <hyperlink ref="F45" r:id="rId109" display="ATMEGA16A-AU"/>
-    <hyperlink ref="G45" r:id="rId110" display="556-ATMEGA16A-AU"/>
-    <hyperlink ref="H46" r:id="rId111" display="e-bay/Aliexpress"/>
-    <hyperlink ref="E47" r:id="rId112" location="" display="24033"/>
-    <hyperlink ref="F47" r:id="rId113" display="CD74HCT165M"/>
-    <hyperlink ref="G47" r:id="rId114" display="771-74HCT165D-T"/>
-    <hyperlink ref="F48" r:id="rId115" display="12M-49SMD-SR"/>
-    <hyperlink ref="G48" r:id="rId116" display="717-9C-12.000MBBK-T"/>
+    <hyperlink ref="E16" r:id="rId40" location="" display="8362"/>
+    <hyperlink ref="F16" r:id="rId41" display="TFF-M3X12/DR114"/>
+    <hyperlink ref="G16" r:id="rId42" display="534-24394"/>
+    <hyperlink ref="E17" r:id="rId43" display="49926"/>
+    <hyperlink ref="F17" r:id="rId44" display="NEB21R"/>
+    <hyperlink ref="G17" r:id="rId45" display="992-CON-SOCJ-2155"/>
+    <hyperlink ref="E18" r:id="rId46" display="25332"/>
+    <hyperlink ref="F18" r:id="rId47" display="ZL202-6G"/>
+    <hyperlink ref="E19" r:id="rId48" display="49058"/>
+    <hyperlink ref="F19" r:id="rId49" display="10033526-N3212MLF/"/>
+    <hyperlink ref="G19" r:id="rId50" display="640-2665RBHM15STB01A"/>
+    <hyperlink ref="F20" r:id="rId51" display="ZL262-4SG"/>
+    <hyperlink ref="G20" r:id="rId52" display="437-3108710401640101"/>
+    <hyperlink ref="F21" r:id="rId53" display="ZL201-04G"/>
+    <hyperlink ref="G21" r:id="rId54" display="649-1012937890402BLF"/>
+    <hyperlink ref="E22" r:id="rId55" display="6959"/>
+    <hyperlink ref="F22" r:id="rId56" display="IRFR9024NTRPBF"/>
+    <hyperlink ref="G22" r:id="rId57" display="942-IRFR9024NTRPBF"/>
+    <hyperlink ref="F23" r:id="rId58" display="BCP5116TA"/>
+    <hyperlink ref="G23" r:id="rId59" display="771-BCP51-10135"/>
+    <hyperlink ref="E24" r:id="rId60" display="294795"/>
+    <hyperlink ref="F24" r:id="rId61" display="BC847B-TP"/>
+    <hyperlink ref="G24" r:id="rId62" display="771-BC847B235"/>
+    <hyperlink ref="E25" r:id="rId63" display="34472"/>
+    <hyperlink ref="F25" r:id="rId64" display="SMD1206-10K"/>
+    <hyperlink ref="G25" r:id="rId65" display="603-RC1206JR-0710KL"/>
+    <hyperlink ref="E26" r:id="rId66" display="35063"/>
+    <hyperlink ref="F26" r:id="rId67" display="SMD1206-330R"/>
+    <hyperlink ref="G26" r:id="rId68" display="603-RC1206JR-07330RL"/>
+    <hyperlink ref="F27" r:id="rId69" display="SMD1206-3K"/>
+    <hyperlink ref="G27" r:id="rId70" display="603-AC1206JR-073KL"/>
+    <hyperlink ref="E28" r:id="rId71" display="35099"/>
+    <hyperlink ref="F28" r:id="rId72" display="SMD1206-33K"/>
+    <hyperlink ref="G28" r:id="rId73" display="652-CR1206-JW-333ELF"/>
+    <hyperlink ref="E29" r:id="rId74" display="34376"/>
+    <hyperlink ref="F29" r:id="rId75" display="SMD1206-1K"/>
+    <hyperlink ref="G29" r:id="rId76" display="652-CR1206-JW-102ELF"/>
+    <hyperlink ref="E30" r:id="rId77" display="34579"/>
+    <hyperlink ref="F30" r:id="rId78" display="SMD1206-100K"/>
+    <hyperlink ref="G30" r:id="rId79" display="652-CR1206JW-104ELF"/>
+    <hyperlink ref="E31" r:id="rId80" display="33952"/>
+    <hyperlink ref="F31" r:id="rId81" display="SMD1206-10R"/>
+    <hyperlink ref="G31" r:id="rId82" display="652-CR1206-JW-100ELF"/>
+    <hyperlink ref="E32" r:id="rId83" display="35053"/>
+    <hyperlink ref="F32" r:id="rId84" display="SMD1206-68R"/>
+    <hyperlink ref="G32" r:id="rId85" display="603-RC1206JR-0768RL"/>
+    <hyperlink ref="F33" r:id="rId86" display="3364X-1-203E"/>
+    <hyperlink ref="E34" r:id="rId87" display="42620"/>
+    <hyperlink ref="F34" r:id="rId88" display="B3F-1052"/>
+    <hyperlink ref="G34" r:id="rId89" display="653-B3F-1052"/>
+    <hyperlink ref="E35" r:id="rId90" display="53256"/>
+    <hyperlink ref="F35" r:id="rId91" display="B32-1010"/>
+    <hyperlink ref="G35" r:id="rId92" display="653-B32-1010"/>
+    <hyperlink ref="F36" r:id="rId93" display="B32-1070"/>
+    <hyperlink ref="G36" r:id="rId94" display="653-B32-1070"/>
+    <hyperlink ref="F37" r:id="rId95" display="B32-1080"/>
+    <hyperlink ref="G37" r:id="rId96" display="653-B32-1080"/>
+    <hyperlink ref="H38" r:id="rId97" display="e-bay/Aliexpress"/>
+    <hyperlink ref="I38" r:id="rId98" display="da sa pouzit aj tento, len ma inak zapojene vyvody, treba predratovat"/>
+    <hyperlink ref="F39" r:id="rId99" display="LM317D2TG"/>
+    <hyperlink ref="G39" r:id="rId100" display="863-LM317D2TG"/>
+    <hyperlink ref="F40" r:id="rId101" display="DS1044-160G"/>
+    <hyperlink ref="F41" r:id="rId102" display="GOLD-16P"/>
+    <hyperlink ref="G41" r:id="rId103" display="575-1104731641001000"/>
+    <hyperlink ref="F42" r:id="rId104" display="STS-20P-K"/>
+    <hyperlink ref="F43" r:id="rId105" display="ZL201-08G"/>
+    <hyperlink ref="E44" r:id="rId106" display="2807"/>
+    <hyperlink ref="F44" r:id="rId107" display="74HCT595D.112"/>
+    <hyperlink ref="G44" r:id="rId108" display="621-74HCT595S16-13"/>
+    <hyperlink ref="F45" r:id="rId109" display="74HCT138D.652"/>
+    <hyperlink ref="G45" r:id="rId110" display="771-74HCT138D-T"/>
+    <hyperlink ref="E46" r:id="rId111" display="184076"/>
+    <hyperlink ref="F46" r:id="rId112" display="ATMEGA16A-AU"/>
+    <hyperlink ref="G46" r:id="rId113" display="556-ATMEGA16A-AU"/>
+    <hyperlink ref="H47" r:id="rId114" display="e-bay/Aliexpress"/>
+    <hyperlink ref="E48" r:id="rId115" display="24033"/>
+    <hyperlink ref="F48" r:id="rId116" display="CD74HCT165M"/>
+    <hyperlink ref="G48" r:id="rId117" display="771-74HCT165D-T"/>
+    <hyperlink ref="F49" r:id="rId118" display="12M-49SMD-SR"/>
+    <hyperlink ref="G49" r:id="rId119" display="717-9C-12.000MBBK-T"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2153,6 +2183,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId117"/>
+  <legacyDrawing r:id="rId120"/>
 </worksheet>
 </file>